--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\maki\tex2canvas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0F0270-3224-4E80-9A6C-9CAAD3B104B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA841B5-92BF-44E8-AC83-7C19144F8434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{579CDBC7-DC5E-4A50-81F8-CF4834BB0189}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{579CDBC7-DC5E-4A50-81F8-CF4834BB0189}"/>
   </bookViews>
   <sheets>
     <sheet name="オブジェクトの種類" sheetId="1" r:id="rId1"/>
     <sheet name="オブジェクトの基本性質" sheetId="3" r:id="rId2"/>
     <sheet name="tex形式のオブジェクト" sheetId="4" r:id="rId3"/>
     <sheet name="texのオブジェクト" sheetId="2" r:id="rId4"/>
+    <sheet name="チョークアルゴリズム" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>texのdisplay形式によるオブジェクト</t>
     <rPh sb="11" eb="13">
@@ -313,6 +314,175 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョークアルゴリズム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本方針</t>
+    <rPh sb="0" eb="4">
+      <t>キホンホウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引数は点群と線分の太さと画像である。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒキスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>テングン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センブン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まずは点群を描画したときの線分の長さを求める</t>
+    <rPh sb="3" eb="5">
+      <t>テングン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センブン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>モト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その線分の長さと線分の幅に画像をフィットさせる。</t>
+    <rPh sb="2" eb="4">
+      <t>センブン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センブン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この時、適切な画像を選ばないといけない。</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テキセツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しかし、画像がいくつかあれば、それをブレンドすれば無限に画像が作成可能である。</t>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ムゲン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>サクセイカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>直線的な画像を曲げる</t>
+    <rPh sb="0" eb="3">
+      <t>チョクセンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>の写像を考える必要がある</t>
+    <rPh sb="1" eb="3">
+      <t>シャゾウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カンガ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このようなケースはどうするか。移動量が小さい場合であり、このケースは発生する</t>
+    <rPh sb="15" eb="18">
+      <t>イドウリョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を先に塗ってしまって、そのあと赤の扇形を上書きする</t>
+    <rPh sb="1" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>オウギガタ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ウワガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -816,6 +986,2331 @@
             </a:solidFill>
             <a:effectLst/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EBE51E8-D6F5-8DE9-0868-42AD70B3DDB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390650" y="3324225"/>
+          <a:ext cx="2038350" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F428698-1D11-4815-AFCF-E9312BCEC5B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="2400301" y="4352925"/>
+          <a:ext cx="2038350" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="円弧 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E2532B4-2554-D16A-C8A3-7B650C5247C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3076574" y="3314700"/>
+          <a:ext cx="714375" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 18870107"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5640B615-83CB-DF2A-3BF6-B461914AD531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3048000" y="3438525"/>
+          <a:ext cx="638175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDDAA8D7-5708-4CA5-A4EE-EDB5EB97097C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3076575" y="3305175"/>
+          <a:ext cx="0" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D17D660F-0605-4731-A29B-6EB90ACDCD54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3057525" y="3314700"/>
+          <a:ext cx="376236" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="円弧 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886F1B75-95A1-4D5E-ABC3-3BAE208D4218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514974" y="3333750"/>
+          <a:ext cx="714375" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 18870107"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BA9E90F-C385-4F74-A969-1B8F4916E529}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5486400" y="3457575"/>
+          <a:ext cx="638175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D18BADE-4020-4542-B075-25422911973F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5495925" y="3305175"/>
+          <a:ext cx="0" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>376236</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02062888-744E-4289-A512-F50FCA38AD21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5486400" y="3324225"/>
+          <a:ext cx="376236" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4765</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>223837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52390</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F075D9-BBC3-4809-AE13-06704A631106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6846096" y="3336131"/>
+          <a:ext cx="766763" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>385761</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D490FA-D1EC-748F-36DF-A69C5FD5675B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5495925" y="3333750"/>
+          <a:ext cx="376236" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48074210-F67B-44C3-ADC9-3C1A10284163}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7343775" y="3286125"/>
+          <a:ext cx="9525" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="楕円 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2640858-4837-4389-83D0-3D1FBFBF30F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7277100" y="3505200"/>
+          <a:ext cx="123825" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="楕円 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75AED16B-2979-4A91-869E-1E3C70CA6019}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5705475" y="3457575"/>
+          <a:ext cx="123825" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="円弧 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9709F083-3E23-4636-9637-C7FF34003F77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3076574" y="3314700"/>
+          <a:ext cx="714375" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 18870107"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E8FB0FE-857E-46EA-83F7-266FEC326752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3048000" y="3438525"/>
+          <a:ext cx="638175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D991B3-DF49-41F6-A5C1-A1FAD8B0F65B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3076575" y="3305175"/>
+          <a:ext cx="0" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線コネクタ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCB1CA3-3983-44EB-9E95-6AC026C1F677}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3057525" y="3314700"/>
+          <a:ext cx="376236" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="円弧 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637E4478-4E45-4052-877C-EF6483F4A74C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5514974" y="3333750"/>
+          <a:ext cx="714375" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 18870107"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4090E27B-12F7-4625-9D72-070C6AD71771}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5486400" y="3457575"/>
+          <a:ext cx="638175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104F5E34-E412-4D13-B34C-0A896C74FFAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5495925" y="3305175"/>
+          <a:ext cx="0" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>376236</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BBFF7B7-2181-4E1A-B234-87926F0B9DBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5486400" y="3324225"/>
+          <a:ext cx="376236" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4765</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>223837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52390</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{944E3EBF-39CA-4D48-ACF3-0BE5EE9A5B91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="6846096" y="3336131"/>
+          <a:ext cx="766763" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>385761</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E9359B-E42D-46EF-AAC3-82014BE472B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5495925" y="3333750"/>
+          <a:ext cx="376236" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D317A2-31EE-444F-A377-8CC69CF3B453}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7343775" y="3286125"/>
+          <a:ext cx="9525" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="楕円 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB586137-2E86-4E20-B0D1-29A8C3F81786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7277100" y="3505200"/>
+          <a:ext cx="123825" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="楕円 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77536195-61C4-40DD-AA0A-632B9FEDF10E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5705475" y="3457575"/>
+          <a:ext cx="123825" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="円弧 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62236CD0-B168-404D-9AC3-2CC16588291E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3076574" y="3314700"/>
+          <a:ext cx="714375" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 18870107"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36472EB0-21DB-421D-899E-4629830BB2FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3048000" y="3438525"/>
+          <a:ext cx="638175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE16362B-4B68-46F9-B2DB-148338F79BC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3076575" y="3305175"/>
+          <a:ext cx="0" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E985B41-7802-402D-8C89-4EE25ACA34D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3057525" y="3314700"/>
+          <a:ext cx="376236" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE564E1A-302C-46FB-8FAF-E62A0D38A6F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="6657975"/>
+          <a:ext cx="133350" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>309564</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>357189</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47628</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44445CE-9928-424E-8DFC-72E1FEF67195}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3340894" y="6746083"/>
+          <a:ext cx="157165" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="円弧 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E390CAE6-0D8E-4F9C-8A55-6DE93FBBB8DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3076574" y="3314700"/>
+          <a:ext cx="714375" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 18870107"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線コネクタ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8CF6428-997E-4F4B-AB8C-A20C9011E7A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3048000" y="3438525"/>
+          <a:ext cx="638175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBA20B6-2ED4-418E-BCA1-27EB9EA6E338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3076575" y="3305175"/>
+          <a:ext cx="0" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線コネクタ 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE97933-905C-43F6-BAF0-A50BE16FAB74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3057525" y="3314700"/>
+          <a:ext cx="376236" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45722294-CC09-48F2-92F7-C5D14D20A804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="7143750"/>
+          <a:ext cx="133350" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1154,7 +3649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1526B03-FB1F-41D4-BC4E-9002EA6AC4E9}">
   <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
@@ -1301,4 +3796,84 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFDD12D-4578-483B-A1A0-4622364F2AAD}">
+  <dimension ref="B2:M32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="9:10" x14ac:dyDescent="0.4">
+      <c r="I29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="9:10" x14ac:dyDescent="0.4">
+      <c r="J32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\maki\tex2canvas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tex2canvas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA841B5-92BF-44E8-AC83-7C19144F8434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501D47A8-4423-416D-B038-4B06732E6708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{579CDBC7-DC5E-4A50-81F8-CF4834BB0189}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{579CDBC7-DC5E-4A50-81F8-CF4834BB0189}"/>
   </bookViews>
   <sheets>
     <sheet name="オブジェクトの種類" sheetId="1" r:id="rId1"/>
@@ -1892,23 +1892,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="円弧 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9709F083-3E23-4636-9637-C7FF34003F77}"/>
+        <xdr:cNvPr id="38" name="円弧 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637E4478-4E45-4052-877C-EF6483F4A74C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3076574" y="3314700"/>
+          <a:off x="5514974" y="3333750"/>
           <a:ext cx="714375" cy="762000"/>
         </a:xfrm>
         <a:prstGeom prst="arc">
@@ -1958,23 +1958,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="直線コネクタ 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E8FB0FE-857E-46EA-83F7-266FEC326752}"/>
+        <xdr:cNvPr id="39" name="直線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4090E27B-12F7-4625-9D72-070C6AD71771}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1982,7 +1982,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3048000" y="3438525"/>
+          <a:off x="5486400" y="3457575"/>
           <a:ext cx="638175" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2013,23 +2013,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D991B3-DF49-41F6-A5C1-A1FAD8B0F65B}"/>
+        <xdr:cNvPr id="40" name="直線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104F5E34-E412-4D13-B34C-0A896C74FFAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2037,7 +2037,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3076575" y="3305175"/>
+          <a:off x="5495925" y="3305175"/>
           <a:ext cx="0" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2068,33 +2068,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>376236</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線コネクタ 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCB1CA3-3983-44EB-9E95-6AC026C1F677}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="34" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BBFF7B7-2181-4E1A-B234-87926F0B9DBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3057525" y="3314700"/>
+          <a:off x="5486400" y="3324225"/>
           <a:ext cx="376236" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2125,57 +2123,57 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4765</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>223837</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>52390</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="円弧 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637E4478-4E45-4052-877C-EF6483F4A74C}"/>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{944E3EBF-39CA-4D48-ACF3-0BE5EE9A5B91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5514974" y="3333750"/>
-          <a:ext cx="714375" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 16200000"/>
-            <a:gd name="adj2" fmla="val 18870107"/>
-          </a:avLst>
-        </a:prstGeom>
+        <a:xfrm rot="16200000">
+          <a:off x="6846096" y="3336131"/>
+          <a:ext cx="766763" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2192,38 +2190,95 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>385761</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線コネクタ 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4090E27B-12F7-4625-9D72-070C6AD71771}"/>
+        <xdr:cNvPr id="43" name="直線コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E9359B-E42D-46EF-AAC3-82014BE472B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="38" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5495925" y="3333750"/>
+          <a:ext cx="376236" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D317A2-31EE-444F-A377-8CC69CF3B453}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5486400" y="3457575"/>
-          <a:ext cx="638175" cy="628650"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7343775" y="3286125"/>
+          <a:ext cx="9525" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="92D050"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2246,164 +2301,48 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="直線コネクタ 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104F5E34-E412-4D13-B34C-0A896C74FFAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5495925" y="3305175"/>
-          <a:ext cx="0" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>376236</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="直線コネクタ 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BBFF7B7-2181-4E1A-B234-87926F0B9DBA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5486400" y="3324225"/>
-          <a:ext cx="376236" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>4765</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>223837</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>52390</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="正方形/長方形 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{944E3EBF-39CA-4D48-ACF3-0BE5EE9A5B91}"/>
+        <xdr:cNvPr id="45" name="楕円 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB586137-2E86-4E20-B0D1-29A8C3F81786}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="6846096" y="3336131"/>
-          <a:ext cx="766763" cy="733425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:xfrm>
+          <a:off x="7277100" y="3505200"/>
+          <a:ext cx="123825" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="0070C0"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
+          <a:schemeClr val="accent6">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -2423,134 +2362,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>385761</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="直線コネクタ 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E9359B-E42D-46EF-AAC3-82014BE472B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="38" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5495925" y="3333750"/>
-          <a:ext cx="376236" cy="733425"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線コネクタ 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88D317A2-31EE-444F-A377-8CC69CF3B453}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7343775" y="3286125"/>
-          <a:ext cx="9525" cy="819150"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="92D050"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="楕円 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB586137-2E86-4E20-B0D1-29A8C3F81786}"/>
+        <xdr:cNvPr id="46" name="楕円 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77536195-61C4-40DD-AA0A-632B9FEDF10E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2385,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7277100" y="3505200"/>
+          <a:off x="5705475" y="3457575"/>
           <a:ext cx="123825" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2594,23 +2421,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="楕円 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77536195-61C4-40DD-AA0A-632B9FEDF10E}"/>
+        <xdr:cNvPr id="49" name="円弧 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62236CD0-B168-404D-9AC3-2CC16588291E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,27 +2445,33 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5705475" y="3457575"/>
-          <a:ext cx="123825" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:off x="3076574" y="3314700"/>
+          <a:ext cx="714375" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 18870107"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2655,37 +2488,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="円弧 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62236CD0-B168-404D-9AC3-2CC16588291E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3076574" y="3314700"/>
-          <a:ext cx="714375" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 16200000"/>
-            <a:gd name="adj2" fmla="val 18870107"/>
-          </a:avLst>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36472EB0-21DB-421D-899E-4629830BB2FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3048000" y="3438525"/>
+          <a:ext cx="638175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
@@ -2705,6 +2535,176 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE16362B-4B68-46F9-B2DB-148338F79BC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3076575" y="3305175"/>
+          <a:ext cx="0" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E985B41-7802-402D-8C89-4EE25ACA34D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3057525" y="3314700"/>
+          <a:ext cx="376236" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE564E1A-302C-46FB-8FAF-E62A0D38A6F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="6657975"/>
+          <a:ext cx="133350" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -2721,198 +2721,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>309564</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線コネクタ 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36472EB0-21DB-421D-899E-4629830BB2FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3048000" y="3438525"/>
-          <a:ext cx="638175" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="直線コネクタ 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE16362B-4B68-46F9-B2DB-148338F79BC1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3076575" y="3305175"/>
-          <a:ext cx="0" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線コネクタ 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E985B41-7802-402D-8C89-4EE25ACA34D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="49" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3057525" y="3314700"/>
-          <a:ext cx="376236" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>357189</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47628</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="正方形/長方形 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE564E1A-302C-46FB-8FAF-E62A0D38A6F4}"/>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44445CE-9928-424E-8DFC-72E1FEF67195}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3295650" y="6657975"/>
-          <a:ext cx="133350" cy="733425"/>
+        <a:xfrm rot="16200000">
+          <a:off x="3340894" y="6746083"/>
+          <a:ext cx="157165" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2954,56 +2787,56 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>309564</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>357189</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>47628</xdr:rowOff>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="正方形/長方形 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44445CE-9928-424E-8DFC-72E1FEF67195}"/>
+        <xdr:cNvPr id="64" name="円弧 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E390CAE6-0D8E-4F9C-8A55-6DE93FBBB8DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="3340894" y="6746083"/>
-          <a:ext cx="157165" cy="733425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
+        <a:xfrm>
+          <a:off x="3076574" y="3314700"/>
+          <a:ext cx="714375" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 18870107"/>
+          </a:avLst>
+        </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:srgbClr val="FF0000"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3020,37 +2853,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="円弧 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E390CAE6-0D8E-4F9C-8A55-6DE93FBBB8DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3076574" y="3314700"/>
-          <a:ext cx="714375" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="arc">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 16200000"/>
-            <a:gd name="adj2" fmla="val 18870107"/>
-          </a:avLst>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線コネクタ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8CF6428-997E-4F4B-AB8C-A20C9011E7A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3048000" y="3438525"/>
+          <a:ext cx="638175" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
@@ -3070,6 +2900,176 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBA20B6-2ED4-418E-BCA1-27EB9EA6E338}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3076575" y="3305175"/>
+          <a:ext cx="0" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4761</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="直線コネクタ 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE97933-905C-43F6-BAF0-A50BE16FAB74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3057525" y="3314700"/>
+          <a:ext cx="376236" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45722294-CC09-48F2-92F7-C5D14D20A804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="7143750"/>
+          <a:ext cx="133350" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3086,38 +3086,41 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="直線コネクタ 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8CF6428-997E-4F4B-AB8C-A20C9011E7A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3048000" y="3438525"/>
-          <a:ext cx="638175" cy="628650"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="円弧 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4025F92-70AA-4382-9AA3-429904D14C04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2772778">
+          <a:off x="3067049" y="3333750"/>
+          <a:ext cx="714375" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200000"/>
+            <a:gd name="adj2" fmla="val 18870107"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
-            <a:srgbClr val="FF0000"/>
+            <a:srgbClr val="00B0F0"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3133,176 +3136,6 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="直線コネクタ 65">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BBA20B6-2ED4-418E-BCA1-27EB9EA6E338}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="3076575" y="3305175"/>
-          <a:ext cx="0" cy="781050"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>4761</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="直線コネクタ 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE97933-905C-43F6-BAF0-A50BE16FAB74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="64" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3057525" y="3314700"/>
-          <a:ext cx="376236" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="正方形/長方形 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45722294-CC09-48F2-92F7-C5D14D20A804}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5486400" y="7143750"/>
-          <a:ext cx="133350" cy="733425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -3314,6 +3147,173 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03C4DDA-A853-4478-846E-F339624A22DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="3695700"/>
+          <a:ext cx="0" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08E8027D-C708-413F-84B7-31D86E9F4F82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3048000" y="4067175"/>
+          <a:ext cx="723900" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>117355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>270286</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55D0F232-B530-4318-B7AE-4C9912C0A489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3124200" y="3451105"/>
+          <a:ext cx="575086" cy="587495"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3803,7 +3803,7 @@
   <dimension ref="B2:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tex2canvas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\maki\tex2canvas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501D47A8-4423-416D-B038-4B06732E6708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47258F00-7F85-48DD-9C2E-56A9B8607AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{579CDBC7-DC5E-4A50-81F8-CF4834BB0189}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{579CDBC7-DC5E-4A50-81F8-CF4834BB0189}"/>
   </bookViews>
   <sheets>
     <sheet name="オブジェクトの種類" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="tex形式のオブジェクト" sheetId="4" r:id="rId3"/>
     <sheet name="texのオブジェクト" sheetId="2" r:id="rId4"/>
     <sheet name="チョークアルゴリズム" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>texのdisplay形式によるオブジェクト</t>
     <rPh sb="11" eb="13">
@@ -483,6 +484,23 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>ウワガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベジェ曲線に画像をフィットさせる</t>
+    <rPh sb="3" eb="5">
+      <t>キョクセン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>微小直線でやらない</t>
+    <rPh sb="0" eb="4">
+      <t>ビショウチョクセン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -624,9 +642,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFDE3422"/>
       <color rgb="FFB7FBBF"/>
       <color rgb="FFF4B7A6"/>
-      <color rgb="FFDE3422"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3314,6 +3332,663 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB678C4-7961-46C9-9513-092EA01C48CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="3638550"/>
+          <a:ext cx="123825" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02AC59F5-37AE-40B0-B852-CA57FB56D807}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381375" y="3638550"/>
+          <a:ext cx="123825" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="楕円 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE90A97C-1D91-43D8-96B5-13833DE84D61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381375" y="5686425"/>
+          <a:ext cx="123825" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC74CF90-4748-1D88-1E74-54263D678025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1466850" y="2857500"/>
+          <a:ext cx="95250" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DE3422"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210E99F7-372A-4693-9BEC-85C07FE3C04E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="1666875"/>
+          <a:ext cx="95250" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DE3422"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C7F1B8-2216-467C-9758-EF5BED580AD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3495675" y="1676400"/>
+          <a:ext cx="95250" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DE3422"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579718F0-9827-479F-8BF0-B5B6D16F9AB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="2962275"/>
+          <a:ext cx="95250" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DE3422"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>59056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>179069</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="円弧 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A369710C-6358-7266-D23E-B1D04CC35D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="2916556"/>
+          <a:ext cx="45719" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="フリーフォーム: 図形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B151D27-4580-F52E-CEED-7E0CB591C336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="1697570"/>
+          <a:ext cx="2276475" cy="1264706"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 2266950"/>
+            <a:gd name="connsiteY0" fmla="*/ 1188506 h 1312331"/>
+            <a:gd name="connsiteX1" fmla="*/ 638175 w 2266950"/>
+            <a:gd name="connsiteY1" fmla="*/ 159806 h 1312331"/>
+            <a:gd name="connsiteX2" fmla="*/ 1666875 w 2266950"/>
+            <a:gd name="connsiteY2" fmla="*/ 121706 h 1312331"/>
+            <a:gd name="connsiteX3" fmla="*/ 2266950 w 2266950"/>
+            <a:gd name="connsiteY3" fmla="*/ 1312331 h 1312331"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2266950" h="1312331">
+              <a:moveTo>
+                <a:pt x="0" y="1188506"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="180181" y="763056"/>
+                <a:pt x="360363" y="337606"/>
+                <a:pt x="638175" y="159806"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="915988" y="-17994"/>
+                <a:pt x="1395413" y="-70382"/>
+                <a:pt x="1666875" y="121706"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1938338" y="313793"/>
+                <a:pt x="2102644" y="813062"/>
+                <a:pt x="2266950" y="1312331"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3802,8 +4477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFDD12D-4578-483B-A1A0-4622364F2AAD}">
   <dimension ref="B2:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3876,4 +4551,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3AD15E-EC25-4341-9DC9-B52A8E8EBD21}">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\maki\tex2canvas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\tex2canvas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47258F00-7F85-48DD-9C2E-56A9B8607AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E249B3F7-4B0C-4A16-9E8C-A564297717DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{579CDBC7-DC5E-4A50-81F8-CF4834BB0189}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{579CDBC7-DC5E-4A50-81F8-CF4834BB0189}"/>
   </bookViews>
   <sheets>
     <sheet name="オブジェクトの種類" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="tex形式のオブジェクト" sheetId="4" r:id="rId3"/>
     <sheet name="texのオブジェクト" sheetId="2" r:id="rId4"/>
     <sheet name="チョークアルゴリズム" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="ベジェ曲線" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>texのdisplay形式によるオブジェクト</t>
     <rPh sb="11" eb="13">
@@ -501,6 +501,20 @@
     <t>微小直線でやらない</t>
     <rPh sb="0" eb="4">
       <t>ビショウチョクセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線分群は</t>
+    <rPh sb="0" eb="3">
+      <t>センブングン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>のように面取り処理を入れてもよい</t>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3963,6 +3977,715 @@
           </a:pathLst>
         </a:custGeom>
         <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{902FB04B-C88D-6A18-F2E0-06D78F6CCCB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2924175" y="4191000"/>
+          <a:ext cx="2038350" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE24B880-55B8-422F-94AC-8C980DFD8FBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="4238625"/>
+          <a:ext cx="1933575" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30FC8A15-6085-43F8-83A4-80FC4FF71126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4895850" y="4133850"/>
+          <a:ext cx="95250" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DE3422"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="楕円 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD835A0B-697B-4618-A64A-0676F20CA826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2924175" y="4171950"/>
+          <a:ext cx="95250" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DE3422"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6911EF1-E2CF-4293-B852-7D95091946DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="4686300"/>
+          <a:ext cx="95250" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DE3422"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE64915-7C2B-451E-A957-9737429033B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7677150" y="4095750"/>
+          <a:ext cx="1247775" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矢印: 右 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{365DF427-371B-252D-5B7B-541C58E21B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372100" y="4200525"/>
+          <a:ext cx="885825" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{734FE61B-6D84-477B-B5FC-577166E80AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8896350" y="4057650"/>
+          <a:ext cx="95250" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DE3422"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685721</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="フリーフォーム: 図形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9BA0A75-7001-69ED-B498-D4F106E5E046}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6857921" y="4092168"/>
+          <a:ext cx="781129" cy="403632"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 743029 w 781129"/>
+            <a:gd name="connsiteY0" fmla="*/ 22632 h 403632"/>
+            <a:gd name="connsiteX1" fmla="*/ 79 w 781129"/>
+            <a:gd name="connsiteY1" fmla="*/ 41682 h 403632"/>
+            <a:gd name="connsiteX2" fmla="*/ 781129 w 781129"/>
+            <a:gd name="connsiteY2" fmla="*/ 403632 h 403632"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="781129" h="403632">
+              <a:moveTo>
+                <a:pt x="743029" y="22632"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="368379" y="407"/>
+                <a:pt x="-6271" y="-21818"/>
+                <a:pt x="79" y="41682"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="6429" y="105182"/>
+                <a:pt x="393779" y="254407"/>
+                <a:pt x="781129" y="403632"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAE5C63E-A22B-4C2F-86D5-5A575A338E03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7686675" y="4514850"/>
+          <a:ext cx="1238250" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E4ABA76-B445-4AEE-8176-19478AFAEF58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="4781550"/>
+          <a:ext cx="95250" cy="104775"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="DE3422"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4555,10 +5278,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3AD15E-EC25-4341-9DC9-B52A8E8EBD21}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4573,6 +5296,16 @@
         <v>37</v>
       </c>
     </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O18" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
